--- a/data/management/Management_information_DKI_2019.xlsx
+++ b/data/management/Management_information_DKI_2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2B76C0-C9C7-6642-8EDB-C18B11EF2815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F02A17-B4A6-6848-AB9B-AAC793F27661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t xml:space="preserve">Correspondence </t>
   </si>
@@ -68,9 +68,6 @@
     <t>2nd nitrogen application</t>
   </si>
   <si>
-    <t>3rd nitrogen application</t>
-  </si>
-  <si>
     <t>Plant protection</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
     <t>Hohenschulen, Achterwehr</t>
   </si>
   <si>
-    <t>KAS</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -287,12 +281,6 @@
     <t>Pseudogley/ Pseudogley-Parabraunerde/ Parabraunerde</t>
   </si>
   <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>Bittersalz</t>
-  </si>
-  <si>
     <t>Grubber, Kreiselegge</t>
   </si>
   <si>
@@ -365,9 +353,6 @@
     <t>06.08.2019</t>
   </si>
   <si>
-    <t>Yara Vera Ami Plus</t>
-  </si>
-  <si>
     <t>50 (kg/ha)</t>
   </si>
   <si>
@@ -375,6 +360,12 @@
   </si>
   <si>
     <t>146-2019</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>UAN (inhibited)</t>
   </si>
 </sst>
 </file>
@@ -892,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -909,13 +900,13 @@
   <sheetData>
     <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1">
         <v>2019</v>
@@ -923,50 +914,50 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -980,69 +971,69 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1052,7 +1043,7 @@
     </row>
     <row r="21" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1061,82 +1052,82 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="15">
         <v>0.34</v>
@@ -1154,7 +1145,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="15">
         <v>0.5</v>
@@ -1174,19 +1165,19 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" s="14">
         <v>41518</v>
@@ -1194,10 +1185,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C37" s="14">
         <v>41518</v>
@@ -1205,40 +1196,40 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="14"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="14"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C42" s="14">
         <v>43530</v>
@@ -1246,16 +1237,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C43" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1270,7 +1261,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>4</v>
@@ -1279,33 +1270,33 @@
         <v>5</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>6</v>
       </c>
       <c r="J46" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K46" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>7</v>
@@ -1317,28 +1308,28 @@
         <v>50</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47" s="12">
         <v>43385</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K47" s="8"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>8</v>
@@ -1353,194 +1344,178 @@
         <v>108</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K48" s="8"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>9</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B49" s="6"/>
       <c r="C49" s="11"/>
       <c r="D49" s="6"/>
       <c r="E49" s="13"/>
       <c r="F49" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K49" s="8"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="11">
-        <v>43573</v>
-      </c>
-      <c r="D50" s="6">
-        <v>5</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>83</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="13"/>
       <c r="F50" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K50" s="8"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="13"/>
-      <c r="C51" s="11">
-        <v>43621</v>
-      </c>
-      <c r="D51" s="6">
-        <v>5</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="13"/>
       <c r="F51" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G51" s="12">
         <v>43573</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="11"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G52" s="12">
         <v>43594</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="11"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G53" s="12">
         <v>43621</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G54" s="12">
         <v>43573</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G55" s="12">
         <v>43594</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/data/management/Management_information_DKI_2019.xlsx
+++ b/data/management/Management_information_DKI_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F02A17-B4A6-6848-AB9B-AAC793F27661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A27D5B-EFFE-9F43-A487-706E84DA2594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1130,7 +1130,7 @@
         <v>42</v>
       </c>
       <c r="B31" s="15">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="C31" s="1"/>
     </row>
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="15">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="C32" s="1"/>
     </row>
@@ -1148,7 +1148,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="15">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="C33" s="1"/>
     </row>
